--- a/database/relatorio/PE 90006-2024/L_F_DISTRIBUIDORA_DE_MATERIAIS_MEDICOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/L_F_DISTRIBUIDORA_DE_MATERIAIS_MEDICOS_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 20 - ALGODÃO (279726)</t>
+          <t>Grupo N/A - Item 20 - ALGODÃO (279726)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 96 - FITA HOSPITALAR (437863)</t>
+          <t>Grupo N/A - Item 96 - FITA HOSPITALAR (437863)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 99 - FITA HOSPITALAR (437865)</t>
+          <t>Grupo N/A - Item 99 - FITA HOSPITALAR (437865)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 100 - FITA HOSPITALAR (437867)</t>
+          <t>Grupo N/A - Item 100 - FITA HOSPITALAR (437867)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 126 - LUVA CIRÚRGICA (269839)</t>
+          <t>Grupo N/A - Item 126 - LUVA CIRÚRGICA (269839)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 127 - LUVA CIRÚRGICA (276341)</t>
+          <t>Grupo N/A - Item 127 - LUVA CIRÚRGICA (276341)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 128 - LUVA CIRÚRGICA (269837)</t>
+          <t>Grupo N/A - Item 128 - LUVA CIRÚRGICA (269837)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 129 - LUVA CIRÚRGICA (269947)</t>
+          <t>Grupo N/A - Item 129 - LUVA CIRÚRGICA (269947)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 148 - SAPATILHA HOSPITALAR (436856)</t>
+          <t>Grupo N/A - Item 148 - SAPATILHA HOSPITALAR (436856)</t>
         </is>
       </c>
     </row>
